--- a/database/industries/bargh/bemoto/product/quarterly.xlsx
+++ b/database/industries/bargh/bemoto/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\bargh\bemoto\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F801C9D2-B8EA-4E5E-A4A4-1AB9F0C426FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +333,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -344,7 +345,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -391,6 +392,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -426,6 +444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,17 +612,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -602,7 +637,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +654,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -636,7 +671,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -651,7 +686,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -668,7 +703,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -685,7 +720,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +735,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -737,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -752,7 +787,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -791,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -828,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -867,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -906,7 +941,7 @@
         <v>189040</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -945,7 +980,7 @@
         <v>41567</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>281900</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>512610</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1348,7 +1383,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1363,7 +1398,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1378,7 +1413,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1430,7 +1465,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>18</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>213293</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>33915</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1812,7 @@
         <v>273448</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1816,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1855,7 +1890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +2007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2161,7 @@
         <v>520779</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2141,7 +2176,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2156,7 +2191,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2171,7 +2206,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
@@ -2208,7 +2243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2223,7 +2258,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>95527</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>33</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>35</v>
       </c>
@@ -2340,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>18</v>
       </c>
@@ -2379,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>19</v>
       </c>
@@ -2418,7 +2453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>20</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>2794403</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>21</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>1991222</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>22</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>367000</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
@@ -2574,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
@@ -2652,7 +2687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>29</v>
       </c>
@@ -2808,7 +2843,7 @@
         <v>18151</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>30</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>31</v>
       </c>
@@ -2884,7 +2919,7 @@
         <v>5266303</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2899,7 +2934,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2914,7 +2949,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2929,7 +2964,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>40</v>
       </c>
@@ -2966,7 +3001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2981,7 +3016,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>33</v>
       </c>
@@ -3059,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>35</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -3137,7 +3172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>20</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>13101241</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>58712133</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3293,7 +3328,7 @@
         <v>1342120</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>37</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>23</v>
       </c>
@@ -3371,7 +3406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>25</v>
       </c>
@@ -3449,7 +3484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +3523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>27</v>
       </c>
@@ -3527,7 +3562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3566,7 +3601,7 @@
         <v>147569106</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
@@ -3605,7 +3640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3620,7 +3655,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3635,7 +3670,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3650,7 +3685,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>44</v>
       </c>
@@ -3687,7 +3722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3702,7 +3737,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3776,7 @@
         <v>-111664</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>33</v>
       </c>
@@ -3780,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3819,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>20</v>
       </c>
@@ -3897,7 +3932,7 @@
         <v>-1628694</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>21</v>
       </c>
@@ -3936,7 +3971,7 @@
         <v>-1089318</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>22</v>
       </c>
@@ -3975,7 +4010,7 @@
         <v>-279628</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>37</v>
       </c>
@@ -4014,7 +4049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>23</v>
       </c>
@@ -4053,7 +4088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>24</v>
       </c>
@@ -4092,7 +4127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>25</v>
       </c>
@@ -4131,7 +4166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>26</v>
       </c>
@@ -4170,7 +4205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>27</v>
       </c>
@@ -4209,7 +4244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
@@ -4248,7 +4283,7 @@
         <v>-5861</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>30</v>
       </c>
@@ -4287,7 +4322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>31</v>
       </c>
@@ -4324,7 +4359,7 @@
         <v>-3115165</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4339,7 +4374,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4354,7 +4389,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4369,7 +4404,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4421,7 +4456,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>15</v>
       </c>
@@ -4460,7 +4495,7 @@
         <v>-16137</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>33</v>
       </c>
@@ -4499,7 +4534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>35</v>
       </c>
@@ -4538,7 +4573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>18</v>
       </c>
@@ -4577,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>20</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>1165709</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +4690,7 @@
         <v>901904</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>22</v>
       </c>
@@ -4694,7 +4729,7 @@
         <v>87372</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>37</v>
       </c>
@@ -4733,7 +4768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>23</v>
       </c>
@@ -4772,7 +4807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>24</v>
       </c>
@@ -4811,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>25</v>
       </c>
@@ -4850,7 +4885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>26</v>
       </c>
@@ -4889,7 +4924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>27</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>29</v>
       </c>
@@ -4967,7 +5002,7 @@
         <v>12290</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>30</v>
       </c>
@@ -5006,7 +5041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>31</v>
       </c>

--- a/database/industries/bargh/bemoto/product/quarterly.xlsx
+++ b/database/industries/bargh/bemoto/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B13B3-E102-423F-8C4C-D66222206A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81408B-A912-4880-AF82-91AF326E9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1400/09</t>
@@ -61,10 +76,10 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
-    <t>دینام و استارت</t>
+    <t>-</t>
   </si>
   <si>
-    <t>-</t>
+    <t>دینام و استارت</t>
   </si>
   <si>
     <t>الکتروموتور کولری</t>
@@ -613,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I150"/>
+  <dimension ref="B1:N150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -631,8 +646,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,8 +663,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,8 +680,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,8 +695,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -677,8 +712,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -689,8 +729,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,8 +744,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -721,8 +771,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -731,13 +796,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -755,412 +825,682 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>247966</v>
+      </c>
+      <c r="F13" s="11">
+        <v>246440</v>
+      </c>
+      <c r="G13" s="11">
+        <v>265512</v>
+      </c>
+      <c r="H13" s="11">
+        <v>211460</v>
+      </c>
+      <c r="I13" s="11">
+        <v>161403</v>
+      </c>
+      <c r="J13" s="11">
         <v>204400</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>195340</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>189040</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>185048</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>219618</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>45346</v>
+      </c>
+      <c r="F14" s="9">
+        <v>56247</v>
+      </c>
+      <c r="G14" s="9">
+        <v>51505</v>
+      </c>
+      <c r="H14" s="9">
+        <v>48114</v>
+      </c>
+      <c r="I14" s="9">
+        <v>36657</v>
+      </c>
+      <c r="J14" s="9">
         <v>58698</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>44285</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>41567</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>45269</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>38473</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
         <v>169560</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>281900</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>312300</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>263520</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>1321884</v>
+      </c>
+      <c r="F17" s="11">
+        <v>173520</v>
+      </c>
+      <c r="G17" s="11">
+        <v>402132</v>
+      </c>
+      <c r="H17" s="11">
+        <v>331368</v>
+      </c>
+      <c r="I17" s="11">
+        <v>146880</v>
+      </c>
+      <c r="J17" s="11">
         <v>60120</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>14</v>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>283</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
+        <v>181</v>
+      </c>
+      <c r="F23" s="11">
+        <v>302</v>
+      </c>
+      <c r="G23" s="11">
+        <v>367</v>
+      </c>
+      <c r="H23" s="11">
+        <v>351</v>
+      </c>
+      <c r="I23" s="11">
+        <v>281</v>
+      </c>
+      <c r="J23" s="11">
         <v>267</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>216</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>103</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>56</v>
       </c>
-      <c r="I23" s="11">
+      <c r="N23" s="11">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>14</v>
+      <c r="E24" s="9">
+        <v>-969982</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2916</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="11">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
+        <v>645395</v>
+      </c>
+      <c r="F27" s="13">
+        <v>476792</v>
+      </c>
+      <c r="G27" s="13">
+        <v>722432</v>
+      </c>
+      <c r="H27" s="13">
+        <v>591293</v>
+      </c>
+      <c r="I27" s="13">
+        <v>345221</v>
+      </c>
+      <c r="J27" s="13">
         <v>323485</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>409401</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>512610</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>542673</v>
       </c>
-      <c r="I27" s="13">
+      <c r="N27" s="13">
         <v>522037</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1169,8 +1509,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1179,8 +1524,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1189,10 +1539,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1211,8 +1566,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1221,20 +1591,25 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>14</v>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -1242,485 +1617,800 @@
       <c r="H33" s="9">
         <v>0</v>
       </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>0</v>
+      <c r="E34" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>14</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>14</v>
+      <c r="F37" s="9">
+        <v>0</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37" s="9">
-        <v>0</v>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>136722</v>
+      </c>
+      <c r="F39" s="9">
+        <v>41861</v>
+      </c>
+      <c r="G39" s="9">
+        <v>403403</v>
+      </c>
+      <c r="H39" s="9">
+        <v>204641</v>
+      </c>
+      <c r="I39" s="9">
+        <v>113246</v>
+      </c>
+      <c r="J39" s="9">
         <v>208560</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="K39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="9">
         <v>213293</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>71746</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>197878</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>56301</v>
+      </c>
+      <c r="F40" s="11">
+        <v>36640</v>
+      </c>
+      <c r="G40" s="11">
+        <v>50323</v>
+      </c>
+      <c r="H40" s="11">
+        <v>28252</v>
+      </c>
+      <c r="I40" s="11">
+        <v>46594</v>
+      </c>
+      <c r="J40" s="11">
         <v>36191</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
         <v>33915</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>37319</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>62775</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="9">
+        <v>18</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="9">
         <v>273448</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>72780</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>215397</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>159396</v>
+      </c>
+      <c r="F44" s="11">
+        <v>41040</v>
+      </c>
+      <c r="G44" s="11">
+        <v>435941</v>
+      </c>
+      <c r="H44" s="11">
+        <v>249300</v>
+      </c>
+      <c r="I44" s="11">
+        <v>81900</v>
+      </c>
+      <c r="J44" s="11">
         <v>224104</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>95</v>
+      </c>
+      <c r="F49" s="9">
+        <v>212</v>
+      </c>
+      <c r="G49" s="9">
+        <v>141</v>
+      </c>
+      <c r="H49" s="9">
+        <v>82</v>
+      </c>
+      <c r="I49" s="9">
+        <v>106</v>
+      </c>
+      <c r="J49" s="9">
         <v>118</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="K49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="9">
         <v>123</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>236</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>14</v>
+      <c r="E50" s="11">
+        <v>697</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G50" s="11">
+        <v>2892</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
+        <v>353211</v>
+      </c>
+      <c r="F53" s="15">
+        <v>119753</v>
+      </c>
+      <c r="G53" s="15">
+        <v>892700</v>
+      </c>
+      <c r="H53" s="15">
+        <v>482275</v>
+      </c>
+      <c r="I53" s="15">
+        <v>241846</v>
+      </c>
+      <c r="J53" s="15">
         <v>468973</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
         <v>520779</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>182081</v>
       </c>
-      <c r="I53" s="15">
+      <c r="N53" s="15">
         <v>476345</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1729,8 +2419,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1739,8 +2434,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1749,10 +2449,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1771,8 +2476,23 @@
       <c r="I57" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1781,486 +2501,791 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>104902</v>
+      </c>
+      <c r="F59" s="9">
+        <v>84493</v>
+      </c>
+      <c r="G59" s="9">
+        <v>116733</v>
+      </c>
+      <c r="H59" s="9">
+        <v>114277</v>
+      </c>
+      <c r="I59" s="9">
+        <v>138791</v>
+      </c>
+      <c r="J59" s="9">
         <v>78724</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="9">
+      <c r="K59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="9">
         <v>95527</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>76364</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>128901</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>14</v>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <v>0</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>14</v>
+      <c r="F62" s="11">
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I62" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>653671</v>
+      </c>
+      <c r="F64" s="11">
+        <v>315293</v>
+      </c>
+      <c r="G64" s="11">
+        <v>2993068</v>
+      </c>
+      <c r="H64" s="11">
+        <v>2751362</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1172132</v>
+      </c>
+      <c r="J64" s="11">
         <v>2087723</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="11">
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11">
         <v>2794403</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>1028423</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>2494334</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>1488736</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1305443</v>
+      </c>
+      <c r="G65" s="9">
+        <v>2659147</v>
+      </c>
+      <c r="H65" s="9">
+        <v>515566</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1957867</v>
+      </c>
+      <c r="J65" s="9">
         <v>1395980</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="9">
+      <c r="K65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="9">
         <v>1991222</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>2333361</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>3266025</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="11">
+        <v>18</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="11">
         <v>367000</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>99788</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>286624</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="11">
+        <v>18</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11">
         <v>227700</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>154202</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>80884</v>
+      </c>
+      <c r="F69" s="9">
+        <v>30626</v>
+      </c>
+      <c r="G69" s="9">
+        <v>393771</v>
+      </c>
+      <c r="H69" s="9">
+        <v>255750</v>
+      </c>
+      <c r="I69" s="9">
+        <v>84370</v>
+      </c>
+      <c r="J69" s="9">
         <v>230210</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>6139</v>
+      </c>
+      <c r="F74" s="11">
+        <v>20180</v>
+      </c>
+      <c r="G74" s="11">
+        <v>12817</v>
+      </c>
+      <c r="H74" s="11">
+        <v>9283</v>
+      </c>
+      <c r="I74" s="11">
+        <v>12778</v>
+      </c>
+      <c r="J74" s="11">
         <v>15668</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="11">
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11">
         <v>18151</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>36369</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>40564</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>14</v>
+      <c r="E75" s="9">
+        <v>5054</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G75" s="9">
+        <v>25150</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>2339386</v>
+      </c>
+      <c r="F78" s="13">
+        <v>1756035</v>
+      </c>
+      <c r="G78" s="13">
+        <v>6200686</v>
+      </c>
+      <c r="H78" s="13">
+        <v>3646238</v>
+      </c>
+      <c r="I78" s="13">
+        <v>3365938</v>
+      </c>
+      <c r="J78" s="13">
         <v>3808305</v>
       </c>
-      <c r="F78" s="13">
-        <v>0</v>
-      </c>
-      <c r="G78" s="13">
+      <c r="K78" s="13">
+        <v>0</v>
+      </c>
+      <c r="L78" s="13">
         <v>5266303</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>3802005</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>6370650</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2269,8 +3294,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2279,8 +3309,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2289,10 +3324,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2311,8 +3351,23 @@
       <c r="I82" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2321,464 +3376,754 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>4781023</v>
+      </c>
+      <c r="F89" s="11">
+        <v>7531903</v>
+      </c>
+      <c r="G89" s="11">
+        <v>7419548</v>
+      </c>
+      <c r="H89" s="11">
+        <v>13444823</v>
+      </c>
+      <c r="I89" s="11">
+        <v>10350317</v>
+      </c>
+      <c r="J89" s="11">
         <v>10010179</v>
       </c>
-      <c r="F89" s="11">
+      <c r="K89" s="11">
         <v>11292739</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>13101241</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>14334221</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>12605413</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
+        <v>26442443</v>
+      </c>
+      <c r="F90" s="9">
+        <v>35628903</v>
+      </c>
+      <c r="G90" s="9">
+        <v>52841583</v>
+      </c>
+      <c r="H90" s="9">
+        <v>17361803</v>
+      </c>
+      <c r="I90" s="9">
+        <v>42019724</v>
+      </c>
+      <c r="J90" s="9">
         <v>38572573</v>
       </c>
-      <c r="F90" s="9">
+      <c r="K90" s="9">
         <v>48691876</v>
       </c>
-      <c r="G90" s="9">
+      <c r="L90" s="9">
         <v>58712133</v>
       </c>
-      <c r="H90" s="9">
+      <c r="M90" s="9">
         <v>62524746</v>
       </c>
-      <c r="I90" s="9">
+      <c r="N90" s="9">
         <v>52027479</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="11">
+        <v>18</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="11">
         <v>1096852</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>1342120</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>1371091</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>1330678</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
+        <v>507441</v>
+      </c>
+      <c r="F94" s="9">
+        <v>746248</v>
+      </c>
+      <c r="G94" s="9">
+        <v>903267</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1025872</v>
+      </c>
+      <c r="I94" s="9">
+        <v>1030159</v>
+      </c>
+      <c r="J94" s="9">
         <v>1027246</v>
       </c>
-      <c r="F94" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>64621053</v>
+      </c>
+      <c r="F99" s="11">
+        <v>95188679</v>
+      </c>
+      <c r="G99" s="11">
+        <v>90900709</v>
+      </c>
+      <c r="H99" s="11">
+        <v>113207317</v>
+      </c>
+      <c r="I99" s="11">
+        <v>120547170</v>
+      </c>
+      <c r="J99" s="11">
         <v>132779661</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>111739796</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>147569106</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>154105932</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>137505085</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>14</v>
+      <c r="E100" s="9">
+        <v>7251076</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G100" s="9">
+        <v>8696404</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2787,8 +4132,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2797,8 +4147,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2807,10 +4162,15 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2829,8 +4189,23 @@
       <c r="I106" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2839,85 +4214,135 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>-115332</v>
+      </c>
+      <c r="F108" s="9">
+        <v>-65300</v>
+      </c>
+      <c r="G108" s="9">
+        <v>-53316</v>
+      </c>
+      <c r="H108" s="9">
+        <v>-86461</v>
+      </c>
+      <c r="I108" s="9">
+        <v>-144360</v>
+      </c>
+      <c r="J108" s="9">
         <v>-60081</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>-31918</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>-111664</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>-76559</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>-125034</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>14</v>
+      <c r="E110" s="9">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <v>0</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
@@ -2929,372 +4354,612 @@
       <c r="G111" s="11">
         <v>0</v>
       </c>
-      <c r="H111" s="11">
-        <v>0</v>
+      <c r="H111" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I111" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="11">
+        <v>0</v>
+      </c>
+      <c r="K111" s="11">
+        <v>0</v>
+      </c>
+      <c r="L111" s="11">
+        <v>0</v>
+      </c>
+      <c r="M111" s="11">
+        <v>0</v>
+      </c>
+      <c r="N111" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
+        <v>-814516</v>
+      </c>
+      <c r="F112" s="9">
+        <v>-85791</v>
+      </c>
+      <c r="G112" s="9">
+        <v>-1890303</v>
+      </c>
+      <c r="H112" s="9">
+        <v>-1340320</v>
+      </c>
+      <c r="I112" s="9">
+        <v>-1039744</v>
+      </c>
+      <c r="J112" s="9">
         <v>-1403363</v>
       </c>
-      <c r="F112" s="9">
+      <c r="K112" s="9">
         <v>-1767834</v>
       </c>
-      <c r="G112" s="9">
+      <c r="L112" s="9">
         <v>-1628694</v>
       </c>
-      <c r="H112" s="9">
+      <c r="M112" s="9">
         <v>-1310554</v>
       </c>
-      <c r="I112" s="9">
+      <c r="N112" s="9">
         <v>-1742584</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
+        <v>-749657</v>
+      </c>
+      <c r="F113" s="11">
+        <v>-282540</v>
+      </c>
+      <c r="G113" s="11">
+        <v>-1164722</v>
+      </c>
+      <c r="H113" s="11">
+        <v>-653673</v>
+      </c>
+      <c r="I113" s="11">
+        <v>-954717</v>
+      </c>
+      <c r="J113" s="11">
         <v>-692029</v>
       </c>
-      <c r="F113" s="11">
+      <c r="K113" s="11">
         <v>-1128355</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>-1089318</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>-1425444</v>
       </c>
-      <c r="I113" s="11">
+      <c r="N113" s="11">
         <v>-2090902</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="9">
+        <v>18</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="9">
         <v>-525655</v>
       </c>
-      <c r="G114" s="9">
+      <c r="L114" s="9">
         <v>-279628</v>
       </c>
-      <c r="H114" s="9">
+      <c r="M114" s="9">
         <v>-178260</v>
       </c>
-      <c r="I114" s="9">
+      <c r="N114" s="9">
         <v>-256575</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="9">
-        <v>0</v>
-      </c>
-      <c r="I116" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="9">
+        <v>0</v>
+      </c>
+      <c r="N116" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>-103961</v>
+      </c>
+      <c r="F117" s="11">
+        <v>-16028</v>
+      </c>
+      <c r="G117" s="11">
+        <v>-336728</v>
+      </c>
+      <c r="H117" s="11">
+        <v>-173956</v>
+      </c>
+      <c r="I117" s="11">
+        <v>-141842</v>
+      </c>
+      <c r="J117" s="11">
         <v>-209658</v>
       </c>
-      <c r="F117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>-7707</v>
+      </c>
+      <c r="F122" s="9">
+        <v>-5011</v>
+      </c>
+      <c r="G122" s="9">
+        <v>-7637</v>
+      </c>
+      <c r="H122" s="9">
+        <v>-461</v>
+      </c>
+      <c r="I122" s="9">
+        <v>-13257</v>
+      </c>
+      <c r="J122" s="9">
         <v>-5840</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>-7409</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>-5861</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>-39489</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>-31301</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>14</v>
+      <c r="E123" s="11">
+        <v>4294</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G123" s="11">
+        <v>-7887</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N125" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
+        <v>-1786879</v>
+      </c>
+      <c r="F126" s="15">
+        <v>-454670</v>
+      </c>
+      <c r="G126" s="15">
+        <v>-3460593</v>
+      </c>
+      <c r="H126" s="15">
+        <v>-2254871</v>
+      </c>
+      <c r="I126" s="15">
+        <v>-2293920</v>
+      </c>
+      <c r="J126" s="15">
         <v>-2370971</v>
       </c>
-      <c r="F126" s="15">
+      <c r="K126" s="15">
         <v>-3461171</v>
       </c>
-      <c r="G126" s="15">
+      <c r="L126" s="15">
         <v>-3115165</v>
       </c>
-      <c r="H126" s="15">
+      <c r="M126" s="15">
         <v>-3030306</v>
       </c>
-      <c r="I126" s="15">
+      <c r="N126" s="15">
         <v>-4246396</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3303,8 +4968,13 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3313,8 +4983,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3323,10 +4998,15 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3345,8 +5025,23 @@
       <c r="I130" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3355,85 +5050,135 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9">
+        <v>-10430</v>
+      </c>
+      <c r="F132" s="9">
+        <v>19193</v>
+      </c>
+      <c r="G132" s="9">
+        <v>63417</v>
+      </c>
+      <c r="H132" s="9">
+        <v>27816</v>
+      </c>
+      <c r="I132" s="9">
+        <v>-5569</v>
+      </c>
+      <c r="J132" s="9">
         <v>18643</v>
       </c>
-      <c r="F132" s="9">
+      <c r="K132" s="9">
         <v>1506</v>
       </c>
-      <c r="G132" s="9">
+      <c r="L132" s="9">
         <v>-16137</v>
       </c>
-      <c r="H132" s="9">
+      <c r="M132" s="9">
         <v>-195</v>
       </c>
-      <c r="I132" s="9">
+      <c r="N132" s="9">
         <v>3867</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D134" s="9"/>
-      <c r="E134" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>14</v>
+      <c r="E134" s="9">
+        <v>0</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
@@ -3445,368 +5190,608 @@
       <c r="G135" s="11">
         <v>0</v>
       </c>
-      <c r="H135" s="11">
-        <v>0</v>
+      <c r="H135" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I135" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="11">
+        <v>0</v>
+      </c>
+      <c r="K135" s="11">
+        <v>0</v>
+      </c>
+      <c r="L135" s="11">
+        <v>0</v>
+      </c>
+      <c r="M135" s="11">
+        <v>0</v>
+      </c>
+      <c r="N135" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
+        <v>-160845</v>
+      </c>
+      <c r="F136" s="9">
+        <v>229502</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1102765</v>
+      </c>
+      <c r="H136" s="9">
+        <v>1411042</v>
+      </c>
+      <c r="I136" s="9">
+        <v>132388</v>
+      </c>
+      <c r="J136" s="9">
         <v>684360</v>
       </c>
-      <c r="F136" s="9">
+      <c r="K136" s="9">
         <v>986815</v>
       </c>
-      <c r="G136" s="9">
+      <c r="L136" s="9">
         <v>1165709</v>
       </c>
-      <c r="H136" s="9">
+      <c r="M136" s="9">
         <v>-282131</v>
       </c>
-      <c r="I136" s="9">
+      <c r="N136" s="9">
         <v>751750</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
+        <v>739079</v>
+      </c>
+      <c r="F137" s="11">
+        <v>1022903</v>
+      </c>
+      <c r="G137" s="11">
+        <v>1494425</v>
+      </c>
+      <c r="H137" s="11">
+        <v>-112957</v>
+      </c>
+      <c r="I137" s="11">
+        <v>1003150</v>
+      </c>
+      <c r="J137" s="11">
         <v>703951</v>
       </c>
-      <c r="F137" s="11">
+      <c r="K137" s="11">
         <v>998847</v>
       </c>
-      <c r="G137" s="11">
+      <c r="L137" s="11">
         <v>901904</v>
       </c>
-      <c r="H137" s="11">
+      <c r="M137" s="11">
         <v>907917</v>
       </c>
-      <c r="I137" s="11">
+      <c r="N137" s="11">
         <v>1175123</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="9">
+        <v>18</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="9">
         <v>109408</v>
       </c>
-      <c r="G138" s="9">
+      <c r="L138" s="9">
         <v>87372</v>
       </c>
-      <c r="H138" s="9">
+      <c r="M138" s="9">
         <v>-78472</v>
       </c>
-      <c r="I138" s="9">
+      <c r="N138" s="9">
         <v>30049</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="9">
+        <v>18</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M140" s="9">
         <v>227700</v>
       </c>
-      <c r="I140" s="9">
+      <c r="N140" s="9">
         <v>154202</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
+        <v>-23077</v>
+      </c>
+      <c r="F141" s="11">
+        <v>14598</v>
+      </c>
+      <c r="G141" s="11">
+        <v>57043</v>
+      </c>
+      <c r="H141" s="11">
+        <v>81794</v>
+      </c>
+      <c r="I141" s="11">
+        <v>-57472</v>
+      </c>
+      <c r="J141" s="11">
         <v>20552</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
+        <v>-1568</v>
+      </c>
+      <c r="F146" s="9">
+        <v>15169</v>
+      </c>
+      <c r="G146" s="9">
+        <v>5180</v>
+      </c>
+      <c r="H146" s="9">
+        <v>8822</v>
+      </c>
+      <c r="I146" s="9">
+        <v>-479</v>
+      </c>
+      <c r="J146" s="9">
         <v>9828</v>
       </c>
-      <c r="F146" s="9">
+      <c r="K146" s="9">
         <v>14492</v>
       </c>
-      <c r="G146" s="9">
+      <c r="L146" s="9">
         <v>12290</v>
       </c>
-      <c r="H146" s="9">
+      <c r="M146" s="9">
         <v>-3120</v>
       </c>
-      <c r="I146" s="9">
+      <c r="N146" s="9">
         <v>9263</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>14</v>
+      <c r="E147" s="11">
+        <v>9348</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G147" s="11">
+        <v>17263</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I148" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N149" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15">
+        <v>552507</v>
+      </c>
+      <c r="F150" s="15">
+        <v>1301365</v>
+      </c>
+      <c r="G150" s="15">
+        <v>2740093</v>
+      </c>
+      <c r="H150" s="15">
+        <v>1416517</v>
+      </c>
+      <c r="I150" s="15">
+        <v>1072018</v>
+      </c>
+      <c r="J150" s="15">
         <v>1437334</v>
       </c>
-      <c r="F150" s="15">
+      <c r="K150" s="15">
         <v>2111068</v>
       </c>
-      <c r="G150" s="15">
+      <c r="L150" s="15">
         <v>2151138</v>
       </c>
-      <c r="H150" s="15">
+      <c r="M150" s="15">
         <v>771699</v>
       </c>
-      <c r="I150" s="15">
+      <c r="N150" s="15">
         <v>2124254</v>
       </c>
     </row>

--- a/database/industries/bargh/bemoto/product/quarterly.xlsx
+++ b/database/industries/bargh/bemoto/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81408B-A912-4880-AF82-91AF326E9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196510BD-9C4D-44C1-B850-A86407A5CFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -632,12 +632,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -652,7 +652,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -750,7 +750,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -802,7 +802,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -856,8 +856,8 @@
       <c r="G11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -917,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,37 +926,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>247966</v>
+        <v>246440</v>
       </c>
       <c r="F13" s="11">
-        <v>246440</v>
+        <v>265512</v>
       </c>
       <c r="G13" s="11">
-        <v>265512</v>
+        <v>211460</v>
       </c>
       <c r="H13" s="11">
-        <v>211460</v>
+        <v>161403</v>
       </c>
       <c r="I13" s="11">
-        <v>161403</v>
+        <v>204400</v>
       </c>
       <c r="J13" s="11">
-        <v>204400</v>
+        <v>195340</v>
       </c>
       <c r="K13" s="11">
-        <v>195340</v>
+        <v>189040</v>
       </c>
       <c r="L13" s="11">
-        <v>189040</v>
+        <v>185048</v>
       </c>
       <c r="M13" s="11">
-        <v>185048</v>
+        <v>219618</v>
       </c>
       <c r="N13" s="11">
-        <v>219618</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>240256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -965,37 +965,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>45346</v>
+        <v>56247</v>
       </c>
       <c r="F14" s="9">
-        <v>56247</v>
+        <v>51505</v>
       </c>
       <c r="G14" s="9">
-        <v>51505</v>
+        <v>48114</v>
       </c>
       <c r="H14" s="9">
-        <v>48114</v>
+        <v>36657</v>
       </c>
       <c r="I14" s="9">
-        <v>36657</v>
+        <v>58698</v>
       </c>
       <c r="J14" s="9">
-        <v>58698</v>
+        <v>44285</v>
       </c>
       <c r="K14" s="9">
-        <v>44285</v>
+        <v>41567</v>
       </c>
       <c r="L14" s="9">
-        <v>41567</v>
+        <v>45269</v>
       </c>
       <c r="M14" s="9">
-        <v>45269</v>
+        <v>38473</v>
       </c>
       <c r="N14" s="9">
-        <v>38473</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1018,23 +1018,23 @@
       <c r="I15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>18</v>
+      <c r="J15" s="11">
+        <v>169560</v>
       </c>
       <c r="K15" s="11">
-        <v>169560</v>
+        <v>281900</v>
       </c>
       <c r="L15" s="11">
-        <v>281900</v>
+        <v>312300</v>
       </c>
       <c r="M15" s="11">
-        <v>312300</v>
+        <v>263520</v>
       </c>
       <c r="N15" s="11">
-        <v>263520</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>314820</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1063,8 +1063,8 @@
       <c r="K16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>18</v>
+      <c r="L16" s="9">
+        <v>0</v>
       </c>
       <c r="M16" s="9">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1082,23 +1082,23 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1321884</v>
+        <v>173520</v>
       </c>
       <c r="F17" s="11">
-        <v>173520</v>
+        <v>402132</v>
       </c>
       <c r="G17" s="11">
-        <v>402132</v>
+        <v>331368</v>
       </c>
       <c r="H17" s="11">
-        <v>331368</v>
+        <v>146880</v>
       </c>
       <c r="I17" s="11">
-        <v>146880</v>
-      </c>
-      <c r="J17" s="11">
         <v>60120</v>
       </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1201,8 +1201,8 @@
       <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1277,11 +1277,11 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
         <v>283</v>
       </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
@@ -1316,37 +1316,37 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="F23" s="11">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="G23" s="11">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="H23" s="11">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="I23" s="11">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J23" s="11">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="K23" s="11">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="L23" s="11">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="M23" s="11">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="N23" s="11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
@@ -1354,15 +1354,15 @@
         <v>16</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9">
-        <v>-969982</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="9">
         <v>2916</v>
       </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" s="9" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
@@ -1417,14 +1417,14 @@
       <c r="L25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>18</v>
+      <c r="M25" s="11">
+        <v>213</v>
       </c>
       <c r="N25" s="11">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
@@ -1456,51 +1456,51 @@
       <c r="L26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>18</v>
+      <c r="M26" s="9">
+        <v>144</v>
       </c>
       <c r="N26" s="9">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>645395</v>
+        <v>476792</v>
       </c>
       <c r="F27" s="13">
-        <v>476792</v>
+        <v>722432</v>
       </c>
       <c r="G27" s="13">
-        <v>722432</v>
+        <v>591293</v>
       </c>
       <c r="H27" s="13">
-        <v>591293</v>
+        <v>345221</v>
       </c>
       <c r="I27" s="13">
-        <v>345221</v>
+        <v>323485</v>
       </c>
       <c r="J27" s="13">
-        <v>323485</v>
+        <v>409401</v>
       </c>
       <c r="K27" s="13">
-        <v>409401</v>
+        <v>512610</v>
       </c>
       <c r="L27" s="13">
-        <v>512610</v>
+        <v>542673</v>
       </c>
       <c r="M27" s="13">
-        <v>542673</v>
+        <v>522037</v>
       </c>
       <c r="N27" s="13">
-        <v>522037</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>606614</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1515,7 +1515,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1530,7 +1530,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1545,7 +1545,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1597,7 +1597,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1614,17 +1614,17 @@
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>0</v>
+      <c r="H33" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>18</v>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
       </c>
       <c r="L33" s="9">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1651,14 +1651,14 @@
       <c r="G34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>18</v>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
       </c>
-      <c r="J34" s="11">
-        <v>0</v>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>18</v>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1726,8 +1726,8 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
-        <v>0</v>
+      <c r="G36" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>18</v>
@@ -1751,7 +1751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>17</v>
       </c>
@@ -1763,11 +1763,11 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
+      <c r="G37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
@@ -1775,8 +1775,8 @@
       <c r="J37" s="9">
         <v>0</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>18</v>
+      <c r="K37" s="9">
+        <v>0</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
@@ -1836,37 +1836,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>136722</v>
+        <v>41861</v>
       </c>
       <c r="F39" s="9">
-        <v>41861</v>
+        <v>403403</v>
       </c>
       <c r="G39" s="9">
-        <v>403403</v>
+        <v>204641</v>
       </c>
       <c r="H39" s="9">
-        <v>204641</v>
+        <v>113246</v>
       </c>
       <c r="I39" s="9">
-        <v>113246</v>
+        <v>208560</v>
       </c>
       <c r="J39" s="9">
-        <v>208560</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>18</v>
+        <v>243931</v>
+      </c>
+      <c r="K39" s="9">
+        <v>213293</v>
       </c>
       <c r="L39" s="9">
-        <v>213293</v>
+        <v>71746</v>
       </c>
       <c r="M39" s="9">
-        <v>71746</v>
+        <v>197878</v>
       </c>
       <c r="N39" s="9">
-        <v>197878</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>421331</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1875,37 +1875,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>56301</v>
+        <v>36640</v>
       </c>
       <c r="F40" s="11">
-        <v>36640</v>
+        <v>50323</v>
       </c>
       <c r="G40" s="11">
-        <v>50323</v>
+        <v>28252</v>
       </c>
       <c r="H40" s="11">
-        <v>28252</v>
+        <v>46594</v>
       </c>
       <c r="I40" s="11">
-        <v>46594</v>
+        <v>36191</v>
       </c>
       <c r="J40" s="11">
-        <v>36191</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
+        <v>43687</v>
+      </c>
+      <c r="K40" s="11">
+        <v>33915</v>
       </c>
       <c r="L40" s="11">
-        <v>33915</v>
+        <v>37319</v>
       </c>
       <c r="M40" s="11">
-        <v>37319</v>
+        <v>62775</v>
       </c>
       <c r="N40" s="11">
-        <v>62775</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48843</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
@@ -1928,23 +1928,23 @@
       <c r="I41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>18</v>
+      <c r="J41" s="9">
+        <v>578987</v>
+      </c>
+      <c r="K41" s="9">
+        <v>273448</v>
       </c>
       <c r="L41" s="9">
-        <v>273448</v>
+        <v>72780</v>
       </c>
       <c r="M41" s="9">
-        <v>72780</v>
+        <v>215397</v>
       </c>
       <c r="N41" s="9">
-        <v>215397</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>632200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>23</v>
       </c>
@@ -2012,8 +2012,8 @@
       <c r="K43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>18</v>
+      <c r="L43" s="9">
+        <v>0</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>25</v>
       </c>
@@ -2031,23 +2031,23 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>159396</v>
+        <v>41040</v>
       </c>
       <c r="F44" s="11">
-        <v>41040</v>
+        <v>435941</v>
       </c>
       <c r="G44" s="11">
-        <v>435941</v>
+        <v>249300</v>
       </c>
       <c r="H44" s="11">
-        <v>249300</v>
+        <v>81900</v>
       </c>
       <c r="I44" s="11">
-        <v>81900</v>
-      </c>
-      <c r="J44" s="11">
         <v>224104</v>
       </c>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K44" s="11" t="s">
         <v>18</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>26</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>28</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>31</v>
       </c>
@@ -2226,37 +2226,37 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F49" s="9">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="G49" s="9">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="H49" s="9">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="I49" s="9">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J49" s="9">
-        <v>118</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>18</v>
+        <v>196</v>
+      </c>
+      <c r="K49" s="9">
+        <v>123</v>
       </c>
       <c r="L49" s="9">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="M49" s="9">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="N49" s="9">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
@@ -2264,15 +2264,15 @@
         <v>16</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11">
-        <v>697</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="E50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="11">
         <v>2892</v>
       </c>
+      <c r="G50" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" s="11" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -2327,14 +2327,14 @@
       <c r="L51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>18</v>
+      <c r="M51" s="9">
+        <v>0</v>
       </c>
       <c r="N51" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>34</v>
       </c>
@@ -2366,51 +2366,51 @@
       <c r="L52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="11" t="s">
-        <v>18</v>
+      <c r="M52" s="11">
+        <v>0</v>
       </c>
       <c r="N52" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
-        <v>353211</v>
+        <v>119753</v>
       </c>
       <c r="F53" s="15">
-        <v>119753</v>
+        <v>892700</v>
       </c>
       <c r="G53" s="15">
-        <v>892700</v>
+        <v>482275</v>
       </c>
       <c r="H53" s="15">
-        <v>482275</v>
+        <v>241846</v>
       </c>
       <c r="I53" s="15">
-        <v>241846</v>
+        <v>468973</v>
       </c>
       <c r="J53" s="15">
-        <v>468973</v>
+        <v>866801</v>
       </c>
       <c r="K53" s="15">
-        <v>0</v>
+        <v>520779</v>
       </c>
       <c r="L53" s="15">
-        <v>520779</v>
+        <v>182081</v>
       </c>
       <c r="M53" s="15">
-        <v>182081</v>
+        <v>476345</v>
       </c>
       <c r="N53" s="15">
-        <v>476345</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1102545</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2425,7 +2425,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2440,7 +2440,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2455,7 +2455,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>42</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2507,7 +2507,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>15</v>
       </c>
@@ -2516,37 +2516,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>104902</v>
+        <v>84493</v>
       </c>
       <c r="F59" s="9">
-        <v>84493</v>
+        <v>116733</v>
       </c>
       <c r="G59" s="9">
-        <v>116733</v>
+        <v>114277</v>
       </c>
       <c r="H59" s="9">
-        <v>114277</v>
+        <v>138791</v>
       </c>
       <c r="I59" s="9">
-        <v>138791</v>
+        <v>78724</v>
       </c>
       <c r="J59" s="9">
-        <v>78724</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>18</v>
+        <v>33424</v>
+      </c>
+      <c r="K59" s="9">
+        <v>95527</v>
       </c>
       <c r="L59" s="9">
-        <v>95527</v>
+        <v>76364</v>
       </c>
       <c r="M59" s="9">
-        <v>76364</v>
+        <v>128901</v>
       </c>
       <c r="N59" s="9">
-        <v>128901</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-128901</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>37</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>39</v>
       </c>
@@ -2599,8 +2599,8 @@
       <c r="F61" s="9">
         <v>0</v>
       </c>
-      <c r="G61" s="9">
-        <v>0</v>
+      <c r="G61" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>18</v>
@@ -2624,7 +2624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>17</v>
       </c>
@@ -2638,11 +2638,11 @@
       <c r="F62" s="11">
         <v>0</v>
       </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>18</v>
+      <c r="G62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
       </c>
       <c r="I62" s="11">
         <v>0</v>
@@ -2650,8 +2650,8 @@
       <c r="J62" s="11">
         <v>0</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>18</v>
+      <c r="K62" s="11">
+        <v>0</v>
       </c>
       <c r="L62" s="11">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>19</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>20</v>
       </c>
@@ -2711,37 +2711,37 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>653671</v>
+        <v>315293</v>
       </c>
       <c r="F64" s="11">
-        <v>315293</v>
+        <v>2993068</v>
       </c>
       <c r="G64" s="11">
-        <v>2993068</v>
+        <v>2751362</v>
       </c>
       <c r="H64" s="11">
-        <v>2751362</v>
+        <v>1172132</v>
       </c>
       <c r="I64" s="11">
-        <v>1172132</v>
+        <v>2087723</v>
       </c>
       <c r="J64" s="11">
-        <v>2087723</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>18</v>
+        <v>2754649</v>
+      </c>
+      <c r="K64" s="11">
+        <v>2794403</v>
       </c>
       <c r="L64" s="11">
-        <v>2794403</v>
+        <v>1028423</v>
       </c>
       <c r="M64" s="11">
-        <v>1028423</v>
+        <v>2494334</v>
       </c>
       <c r="N64" s="11">
-        <v>2494334</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6694662</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>21</v>
       </c>
@@ -2750,37 +2750,37 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>1488736</v>
+        <v>1305443</v>
       </c>
       <c r="F65" s="9">
-        <v>1305443</v>
+        <v>2659147</v>
       </c>
       <c r="G65" s="9">
-        <v>2659147</v>
+        <v>515566</v>
       </c>
       <c r="H65" s="9">
-        <v>515566</v>
+        <v>1957867</v>
       </c>
       <c r="I65" s="9">
-        <v>1957867</v>
+        <v>1395980</v>
       </c>
       <c r="J65" s="9">
-        <v>1395980</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>18</v>
+        <v>2127202</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1991222</v>
       </c>
       <c r="L65" s="9">
-        <v>1991222</v>
+        <v>2333361</v>
       </c>
       <c r="M65" s="9">
-        <v>2333361</v>
+        <v>3266025</v>
       </c>
       <c r="N65" s="9">
-        <v>3266025</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3637617</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>22</v>
       </c>
@@ -2803,23 +2803,23 @@
       <c r="I66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>18</v>
+      <c r="J66" s="11">
+        <v>635063</v>
+      </c>
+      <c r="K66" s="11">
+        <v>367000</v>
       </c>
       <c r="L66" s="11">
-        <v>367000</v>
+        <v>99788</v>
       </c>
       <c r="M66" s="11">
-        <v>99788</v>
+        <v>286624</v>
       </c>
       <c r="N66" s="11">
-        <v>286624</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>959424</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>41</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>23</v>
       </c>
@@ -2887,17 +2887,17 @@
       <c r="K68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="11" t="s">
-        <v>18</v>
+      <c r="L68" s="11">
+        <v>227700</v>
       </c>
       <c r="M68" s="11">
-        <v>227700</v>
+        <v>154202</v>
       </c>
       <c r="N68" s="11">
-        <v>154202</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>25</v>
       </c>
@@ -2906,23 +2906,23 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>80884</v>
+        <v>30626</v>
       </c>
       <c r="F69" s="9">
-        <v>30626</v>
+        <v>393771</v>
       </c>
       <c r="G69" s="9">
-        <v>393771</v>
+        <v>255750</v>
       </c>
       <c r="H69" s="9">
-        <v>255750</v>
+        <v>84370</v>
       </c>
       <c r="I69" s="9">
-        <v>84370</v>
-      </c>
-      <c r="J69" s="9">
         <v>230210</v>
       </c>
+      <c r="J69" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="K69" s="9" t="s">
         <v>18</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>27</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>28</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>31</v>
       </c>
@@ -3101,37 +3101,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>6139</v>
+        <v>20180</v>
       </c>
       <c r="F74" s="11">
-        <v>20180</v>
+        <v>12817</v>
       </c>
       <c r="G74" s="11">
-        <v>12817</v>
+        <v>9283</v>
       </c>
       <c r="H74" s="11">
-        <v>9283</v>
+        <v>12778</v>
       </c>
       <c r="I74" s="11">
-        <v>12778</v>
+        <v>15668</v>
       </c>
       <c r="J74" s="11">
-        <v>15668</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>18</v>
+        <v>21901</v>
+      </c>
+      <c r="K74" s="11">
+        <v>18151</v>
       </c>
       <c r="L74" s="11">
-        <v>18151</v>
+        <v>36369</v>
       </c>
       <c r="M74" s="11">
-        <v>36369</v>
+        <v>40564</v>
       </c>
       <c r="N74" s="11">
-        <v>40564</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33699</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>32</v>
       </c>
@@ -3139,15 +3139,15 @@
         <v>24</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9">
-        <v>5054</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="9">
+      <c r="E75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="9">
         <v>25150</v>
       </c>
+      <c r="G75" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H75" s="9" t="s">
         <v>18</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>33</v>
       </c>
@@ -3202,14 +3202,14 @@
       <c r="L76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M76" s="11" t="s">
-        <v>18</v>
+      <c r="M76" s="11">
+        <v>0</v>
       </c>
       <c r="N76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>327553</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>34</v>
       </c>
@@ -3241,51 +3241,51 @@
       <c r="L77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>18</v>
+      <c r="M77" s="9">
+        <v>0</v>
       </c>
       <c r="N77" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>2339386</v>
+        <v>1756035</v>
       </c>
       <c r="F78" s="13">
-        <v>1756035</v>
+        <v>6200686</v>
       </c>
       <c r="G78" s="13">
-        <v>6200686</v>
+        <v>3646238</v>
       </c>
       <c r="H78" s="13">
-        <v>3646238</v>
+        <v>3365938</v>
       </c>
       <c r="I78" s="13">
-        <v>3365938</v>
+        <v>3808305</v>
       </c>
       <c r="J78" s="13">
-        <v>3808305</v>
+        <v>5572239</v>
       </c>
       <c r="K78" s="13">
-        <v>0</v>
+        <v>5266303</v>
       </c>
       <c r="L78" s="13">
-        <v>5266303</v>
+        <v>3802005</v>
       </c>
       <c r="M78" s="13">
-        <v>3802005</v>
+        <v>6370650</v>
       </c>
       <c r="N78" s="13">
-        <v>6370650</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11524054</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3300,7 +3300,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3315,7 +3315,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3330,7 +3330,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3382,7 +3382,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>37</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>39</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>17</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>19</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>20</v>
       </c>
@@ -3586,37 +3586,37 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>4781023</v>
+        <v>7531903</v>
       </c>
       <c r="F89" s="11">
-        <v>7531903</v>
+        <v>7419548</v>
       </c>
       <c r="G89" s="11">
-        <v>7419548</v>
+        <v>13444823</v>
       </c>
       <c r="H89" s="11">
-        <v>13444823</v>
+        <v>10350317</v>
       </c>
       <c r="I89" s="11">
-        <v>10350317</v>
+        <v>10010179</v>
       </c>
       <c r="J89" s="11">
-        <v>10010179</v>
+        <v>11292739</v>
       </c>
       <c r="K89" s="11">
-        <v>11292739</v>
+        <v>13101241</v>
       </c>
       <c r="L89" s="11">
-        <v>13101241</v>
+        <v>14334221</v>
       </c>
       <c r="M89" s="11">
-        <v>14334221</v>
+        <v>12605413</v>
       </c>
       <c r="N89" s="11">
-        <v>12605413</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15889317</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>21</v>
       </c>
@@ -3625,37 +3625,37 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
-        <v>26442443</v>
+        <v>35628903</v>
       </c>
       <c r="F90" s="9">
-        <v>35628903</v>
+        <v>52841583</v>
       </c>
       <c r="G90" s="9">
-        <v>52841583</v>
+        <v>17361803</v>
       </c>
       <c r="H90" s="9">
-        <v>17361803</v>
+        <v>42019724</v>
       </c>
       <c r="I90" s="9">
-        <v>42019724</v>
+        <v>38572573</v>
       </c>
       <c r="J90" s="9">
-        <v>38572573</v>
+        <v>48691876</v>
       </c>
       <c r="K90" s="9">
-        <v>48691876</v>
+        <v>58712133</v>
       </c>
       <c r="L90" s="9">
-        <v>58712133</v>
+        <v>62524746</v>
       </c>
       <c r="M90" s="9">
-        <v>62524746</v>
+        <v>52027479</v>
       </c>
       <c r="N90" s="9">
-        <v>52027479</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74475708</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>22</v>
       </c>
@@ -3678,23 +3678,23 @@
       <c r="I91" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>18</v>
+      <c r="J91" s="11">
+        <v>1096852</v>
       </c>
       <c r="K91" s="11">
-        <v>1096852</v>
+        <v>1342120</v>
       </c>
       <c r="L91" s="11">
-        <v>1342120</v>
+        <v>1371091</v>
       </c>
       <c r="M91" s="11">
-        <v>1371091</v>
+        <v>1330678</v>
       </c>
       <c r="N91" s="11">
-        <v>1330678</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1517596</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>41</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>23</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>25</v>
       </c>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>507441</v>
+        <v>746248</v>
       </c>
       <c r="F94" s="9">
-        <v>746248</v>
+        <v>903267</v>
       </c>
       <c r="G94" s="9">
-        <v>903267</v>
+        <v>1025872</v>
       </c>
       <c r="H94" s="9">
-        <v>1025872</v>
+        <v>1030159</v>
       </c>
       <c r="I94" s="9">
-        <v>1030159</v>
-      </c>
-      <c r="J94" s="9">
         <v>1027246</v>
       </c>
+      <c r="J94" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="K94" s="9" t="s">
         <v>18</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>27</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>28</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>29</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
@@ -3976,37 +3976,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>64621053</v>
+        <v>95188679</v>
       </c>
       <c r="F99" s="11">
-        <v>95188679</v>
+        <v>90900709</v>
       </c>
       <c r="G99" s="11">
-        <v>90900709</v>
+        <v>113207317</v>
       </c>
       <c r="H99" s="11">
-        <v>113207317</v>
+        <v>120547170</v>
       </c>
       <c r="I99" s="11">
-        <v>120547170</v>
+        <v>132779661</v>
       </c>
       <c r="J99" s="11">
-        <v>132779661</v>
+        <v>111739796</v>
       </c>
       <c r="K99" s="11">
-        <v>111739796</v>
+        <v>147569106</v>
       </c>
       <c r="L99" s="11">
-        <v>147569106</v>
+        <v>154105932</v>
       </c>
       <c r="M99" s="11">
-        <v>154105932</v>
+        <v>137505085</v>
       </c>
       <c r="N99" s="11">
-        <v>137505085</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>197070175</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>32</v>
       </c>
@@ -4014,15 +4014,15 @@
         <v>44</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9">
-        <v>7251076</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="9">
+      <c r="E100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="9">
         <v>8696404</v>
       </c>
+      <c r="G100" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H100" s="9" t="s">
         <v>18</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>33</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>34</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4138,7 +4138,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4153,7 +4153,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4168,7 +4168,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>49</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4220,7 +4220,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>15</v>
       </c>
@@ -4229,37 +4229,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>-115332</v>
+        <v>-65300</v>
       </c>
       <c r="F108" s="9">
-        <v>-65300</v>
+        <v>-53316</v>
       </c>
       <c r="G108" s="9">
-        <v>-53316</v>
+        <v>-86461</v>
       </c>
       <c r="H108" s="9">
-        <v>-86461</v>
+        <v>-144360</v>
       </c>
       <c r="I108" s="9">
-        <v>-144360</v>
+        <v>-60081</v>
       </c>
       <c r="J108" s="9">
-        <v>-60081</v>
+        <v>-31918</v>
       </c>
       <c r="K108" s="9">
-        <v>-31918</v>
+        <v>-111664</v>
       </c>
       <c r="L108" s="9">
-        <v>-111664</v>
+        <v>-76559</v>
       </c>
       <c r="M108" s="9">
-        <v>-76559</v>
+        <v>-125034</v>
       </c>
       <c r="N108" s="9">
-        <v>-125034</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>125034</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>37</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>39</v>
       </c>
@@ -4312,8 +4312,8 @@
       <c r="F110" s="9">
         <v>0</v>
       </c>
-      <c r="G110" s="9">
-        <v>0</v>
+      <c r="G110" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>18</v>
@@ -4337,7 +4337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>17</v>
       </c>
@@ -4351,11 +4351,11 @@
       <c r="F111" s="11">
         <v>0</v>
       </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>18</v>
+      <c r="G111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0</v>
       </c>
       <c r="I111" s="11">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>20</v>
       </c>
@@ -4385,37 +4385,37 @@
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
-        <v>-814516</v>
+        <v>-85791</v>
       </c>
       <c r="F112" s="9">
-        <v>-85791</v>
+        <v>-1890303</v>
       </c>
       <c r="G112" s="9">
-        <v>-1890303</v>
+        <v>-1340320</v>
       </c>
       <c r="H112" s="9">
-        <v>-1340320</v>
+        <v>-1039744</v>
       </c>
       <c r="I112" s="9">
-        <v>-1039744</v>
+        <v>-1403363</v>
       </c>
       <c r="J112" s="9">
-        <v>-1403363</v>
+        <v>-1767834</v>
       </c>
       <c r="K112" s="9">
-        <v>-1767834</v>
+        <v>-1628694</v>
       </c>
       <c r="L112" s="9">
-        <v>-1628694</v>
+        <v>-1310554</v>
       </c>
       <c r="M112" s="9">
-        <v>-1310554</v>
+        <v>-1742584</v>
       </c>
       <c r="N112" s="9">
-        <v>-1742584</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4734633</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>21</v>
       </c>
@@ -4424,37 +4424,37 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>-749657</v>
+        <v>-282540</v>
       </c>
       <c r="F113" s="11">
-        <v>-282540</v>
+        <v>-1164722</v>
       </c>
       <c r="G113" s="11">
-        <v>-1164722</v>
+        <v>-653673</v>
       </c>
       <c r="H113" s="11">
-        <v>-653673</v>
+        <v>-954717</v>
       </c>
       <c r="I113" s="11">
-        <v>-954717</v>
+        <v>-692029</v>
       </c>
       <c r="J113" s="11">
-        <v>-692029</v>
+        <v>-1128355</v>
       </c>
       <c r="K113" s="11">
-        <v>-1128355</v>
+        <v>-1089318</v>
       </c>
       <c r="L113" s="11">
-        <v>-1089318</v>
+        <v>-1425444</v>
       </c>
       <c r="M113" s="11">
-        <v>-1425444</v>
+        <v>-2090902</v>
       </c>
       <c r="N113" s="11">
-        <v>-2090902</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1924834</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>22</v>
       </c>
@@ -4477,23 +4477,23 @@
       <c r="I114" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="9" t="s">
-        <v>18</v>
+      <c r="J114" s="9">
+        <v>-525655</v>
       </c>
       <c r="K114" s="9">
-        <v>-525655</v>
+        <v>-279628</v>
       </c>
       <c r="L114" s="9">
-        <v>-279628</v>
+        <v>-178260</v>
       </c>
       <c r="M114" s="9">
-        <v>-178260</v>
+        <v>-256575</v>
       </c>
       <c r="N114" s="9">
-        <v>-256575</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-870605</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>41</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>23</v>
       </c>
@@ -4561,8 +4561,8 @@
       <c r="K116" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L116" s="9" t="s">
-        <v>18</v>
+      <c r="L116" s="9">
+        <v>0</v>
       </c>
       <c r="M116" s="9">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>25</v>
       </c>
@@ -4580,23 +4580,23 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>-103961</v>
+        <v>-16028</v>
       </c>
       <c r="F117" s="11">
-        <v>-16028</v>
+        <v>-336728</v>
       </c>
       <c r="G117" s="11">
-        <v>-336728</v>
+        <v>-173956</v>
       </c>
       <c r="H117" s="11">
-        <v>-173956</v>
+        <v>-141842</v>
       </c>
       <c r="I117" s="11">
-        <v>-141842</v>
-      </c>
-      <c r="J117" s="11">
         <v>-209658</v>
       </c>
+      <c r="J117" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K117" s="11" t="s">
         <v>18</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>26</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>27</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>28</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>29</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>31</v>
       </c>
@@ -4775,37 +4775,37 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>-7707</v>
+        <v>-5011</v>
       </c>
       <c r="F122" s="9">
-        <v>-5011</v>
+        <v>-7637</v>
       </c>
       <c r="G122" s="9">
-        <v>-7637</v>
+        <v>-461</v>
       </c>
       <c r="H122" s="9">
-        <v>-461</v>
+        <v>-13257</v>
       </c>
       <c r="I122" s="9">
-        <v>-13257</v>
+        <v>-5840</v>
       </c>
       <c r="J122" s="9">
-        <v>-5840</v>
+        <v>-7409</v>
       </c>
       <c r="K122" s="9">
-        <v>-7409</v>
+        <v>-5861</v>
       </c>
       <c r="L122" s="9">
-        <v>-5861</v>
+        <v>-39489</v>
       </c>
       <c r="M122" s="9">
-        <v>-39489</v>
+        <v>-31301</v>
       </c>
       <c r="N122" s="9">
-        <v>-31301</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-13101</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>32</v>
       </c>
@@ -4813,15 +4813,15 @@
         <v>24</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11">
-        <v>4294</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="11">
+      <c r="E123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="11">
         <v>-7887</v>
       </c>
+      <c r="G123" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H123" s="11" t="s">
         <v>18</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>33</v>
       </c>
@@ -4876,14 +4876,14 @@
       <c r="L124" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M124" s="9" t="s">
-        <v>18</v>
+      <c r="M124" s="9">
+        <v>0</v>
       </c>
       <c r="N124" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-298409</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>34</v>
       </c>
@@ -4915,51 +4915,51 @@
       <c r="L125" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M125" s="11" t="s">
-        <v>18</v>
+      <c r="M125" s="11">
+        <v>0</v>
       </c>
       <c r="N125" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
-        <v>-1786879</v>
+        <v>-454670</v>
       </c>
       <c r="F126" s="15">
-        <v>-454670</v>
+        <v>-3460593</v>
       </c>
       <c r="G126" s="15">
-        <v>-3460593</v>
+        <v>-2254871</v>
       </c>
       <c r="H126" s="15">
-        <v>-2254871</v>
+        <v>-2293920</v>
       </c>
       <c r="I126" s="15">
-        <v>-2293920</v>
+        <v>-2370971</v>
       </c>
       <c r="J126" s="15">
-        <v>-2370971</v>
+        <v>-3461171</v>
       </c>
       <c r="K126" s="15">
-        <v>-3461171</v>
+        <v>-3115165</v>
       </c>
       <c r="L126" s="15">
-        <v>-3115165</v>
+        <v>-3030306</v>
       </c>
       <c r="M126" s="15">
-        <v>-3030306</v>
+        <v>-4246396</v>
       </c>
       <c r="N126" s="15">
-        <v>-4246396</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-7716548</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4974,7 +4974,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4989,7 +4989,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5004,7 +5004,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>50</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5056,7 +5056,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>15</v>
       </c>
@@ -5065,37 +5065,37 @@
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9">
-        <v>-10430</v>
+        <v>19193</v>
       </c>
       <c r="F132" s="9">
-        <v>19193</v>
+        <v>63417</v>
       </c>
       <c r="G132" s="9">
-        <v>63417</v>
+        <v>27816</v>
       </c>
       <c r="H132" s="9">
-        <v>27816</v>
+        <v>-5569</v>
       </c>
       <c r="I132" s="9">
-        <v>-5569</v>
+        <v>18643</v>
       </c>
       <c r="J132" s="9">
-        <v>18643</v>
+        <v>1506</v>
       </c>
       <c r="K132" s="9">
-        <v>1506</v>
+        <v>-16137</v>
       </c>
       <c r="L132" s="9">
-        <v>-16137</v>
+        <v>-195</v>
       </c>
       <c r="M132" s="9">
-        <v>-195</v>
+        <v>3867</v>
       </c>
       <c r="N132" s="9">
-        <v>3867</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3867</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>37</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>39</v>
       </c>
@@ -5148,8 +5148,8 @@
       <c r="F134" s="9">
         <v>0</v>
       </c>
-      <c r="G134" s="9">
-        <v>0</v>
+      <c r="G134" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>18</v>
@@ -5173,7 +5173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>17</v>
       </c>
@@ -5187,11 +5187,11 @@
       <c r="F135" s="11">
         <v>0</v>
       </c>
-      <c r="G135" s="11">
-        <v>0</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>18</v>
+      <c r="G135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0</v>
       </c>
       <c r="I135" s="11">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>20</v>
       </c>
@@ -5221,37 +5221,37 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
-        <v>-160845</v>
+        <v>229502</v>
       </c>
       <c r="F136" s="9">
-        <v>229502</v>
+        <v>1102765</v>
       </c>
       <c r="G136" s="9">
-        <v>1102765</v>
+        <v>1411042</v>
       </c>
       <c r="H136" s="9">
-        <v>1411042</v>
+        <v>132388</v>
       </c>
       <c r="I136" s="9">
-        <v>132388</v>
+        <v>684360</v>
       </c>
       <c r="J136" s="9">
-        <v>684360</v>
+        <v>986815</v>
       </c>
       <c r="K136" s="9">
-        <v>986815</v>
+        <v>1165709</v>
       </c>
       <c r="L136" s="9">
-        <v>1165709</v>
+        <v>-282131</v>
       </c>
       <c r="M136" s="9">
-        <v>-282131</v>
+        <v>751750</v>
       </c>
       <c r="N136" s="9">
-        <v>751750</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1960029</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>21</v>
       </c>
@@ -5260,37 +5260,37 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>739079</v>
+        <v>1022903</v>
       </c>
       <c r="F137" s="11">
-        <v>1022903</v>
+        <v>1494425</v>
       </c>
       <c r="G137" s="11">
-        <v>1494425</v>
+        <v>-112957</v>
       </c>
       <c r="H137" s="11">
-        <v>-112957</v>
+        <v>1003150</v>
       </c>
       <c r="I137" s="11">
-        <v>1003150</v>
+        <v>703951</v>
       </c>
       <c r="J137" s="11">
-        <v>703951</v>
+        <v>998847</v>
       </c>
       <c r="K137" s="11">
-        <v>998847</v>
+        <v>901904</v>
       </c>
       <c r="L137" s="11">
-        <v>901904</v>
+        <v>907917</v>
       </c>
       <c r="M137" s="11">
-        <v>907917</v>
+        <v>1175123</v>
       </c>
       <c r="N137" s="11">
-        <v>1175123</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1712783</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>22</v>
       </c>
@@ -5313,23 +5313,23 @@
       <c r="I138" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J138" s="9" t="s">
-        <v>18</v>
+      <c r="J138" s="9">
+        <v>109408</v>
       </c>
       <c r="K138" s="9">
-        <v>109408</v>
+        <v>87372</v>
       </c>
       <c r="L138" s="9">
-        <v>87372</v>
+        <v>-78472</v>
       </c>
       <c r="M138" s="9">
-        <v>-78472</v>
+        <v>30049</v>
       </c>
       <c r="N138" s="9">
-        <v>30049</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>88819</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>41</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>23</v>
       </c>
@@ -5397,17 +5397,17 @@
       <c r="K140" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L140" s="9" t="s">
-        <v>18</v>
+      <c r="L140" s="9">
+        <v>227700</v>
       </c>
       <c r="M140" s="9">
-        <v>227700</v>
+        <v>154202</v>
       </c>
       <c r="N140" s="9">
-        <v>154202</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>25</v>
       </c>
@@ -5416,23 +5416,23 @@
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
-        <v>-23077</v>
+        <v>14598</v>
       </c>
       <c r="F141" s="11">
-        <v>14598</v>
+        <v>57043</v>
       </c>
       <c r="G141" s="11">
-        <v>57043</v>
+        <v>81794</v>
       </c>
       <c r="H141" s="11">
-        <v>81794</v>
+        <v>-57472</v>
       </c>
       <c r="I141" s="11">
-        <v>-57472</v>
-      </c>
-      <c r="J141" s="11">
         <v>20552</v>
       </c>
+      <c r="J141" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K141" s="11" t="s">
         <v>18</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>26</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>27</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>28</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>29</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>31</v>
       </c>
@@ -5611,37 +5611,37 @@
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
-        <v>-1568</v>
+        <v>15169</v>
       </c>
       <c r="F146" s="9">
-        <v>15169</v>
+        <v>5180</v>
       </c>
       <c r="G146" s="9">
-        <v>5180</v>
+        <v>8822</v>
       </c>
       <c r="H146" s="9">
-        <v>8822</v>
+        <v>-479</v>
       </c>
       <c r="I146" s="9">
-        <v>-479</v>
+        <v>9828</v>
       </c>
       <c r="J146" s="9">
-        <v>9828</v>
+        <v>14492</v>
       </c>
       <c r="K146" s="9">
-        <v>14492</v>
+        <v>12290</v>
       </c>
       <c r="L146" s="9">
-        <v>12290</v>
+        <v>-3120</v>
       </c>
       <c r="M146" s="9">
-        <v>-3120</v>
+        <v>9263</v>
       </c>
       <c r="N146" s="9">
-        <v>9263</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20598</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>32</v>
       </c>
@@ -5649,15 +5649,15 @@
         <v>24</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11">
-        <v>9348</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" s="11">
+      <c r="E147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="11">
         <v>17263</v>
       </c>
+      <c r="G147" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H147" s="11" t="s">
         <v>18</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>33</v>
       </c>
@@ -5712,14 +5712,14 @@
       <c r="L148" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M148" s="9" t="s">
-        <v>18</v>
+      <c r="M148" s="9">
+        <v>0</v>
       </c>
       <c r="N148" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29144</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>34</v>
       </c>
@@ -5751,48 +5751,48 @@
       <c r="L149" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M149" s="11" t="s">
-        <v>18</v>
+      <c r="M149" s="11">
+        <v>0</v>
       </c>
       <c r="N149" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15">
-        <v>552507</v>
+        <v>1301365</v>
       </c>
       <c r="F150" s="15">
-        <v>1301365</v>
+        <v>2740093</v>
       </c>
       <c r="G150" s="15">
-        <v>2740093</v>
+        <v>1416517</v>
       </c>
       <c r="H150" s="15">
-        <v>1416517</v>
+        <v>1072018</v>
       </c>
       <c r="I150" s="15">
-        <v>1072018</v>
+        <v>1437334</v>
       </c>
       <c r="J150" s="15">
-        <v>1437334</v>
+        <v>2111068</v>
       </c>
       <c r="K150" s="15">
-        <v>2111068</v>
+        <v>2151138</v>
       </c>
       <c r="L150" s="15">
-        <v>2151138</v>
+        <v>771699</v>
       </c>
       <c r="M150" s="15">
-        <v>771699</v>
+        <v>2124254</v>
       </c>
       <c r="N150" s="15">
-        <v>2124254</v>
+        <v>3807506</v>
       </c>
     </row>
   </sheetData>
